--- a/templates/导题模板.xlsx
+++ b/templates/导题模板.xlsx
@@ -34,16 +34,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t> -</t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="12"/>
         <color rgb="FF6C6E71"/>
@@ -169,7 +159,7 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>、选择题答案不要有字母外的其他字符；</t>
+      <t>、答案不要有字母外的其他字符；</t>
     </r>
     <r>
       <rPr>
@@ -197,16 +187,7 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正确</t>
+      <t xml:space="preserve">''A', </t>
     </r>
     <r>
       <rPr>
@@ -214,17 +195,9 @@
         <color rgb="FF6C6E71"/>
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误</t>
+        <scheme val="major"/>
+      </rPr>
+      <t>‘B</t>
     </r>
     <r>
       <rPr>
@@ -233,62 +206,7 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>', '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">', 'A', </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>‘B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6C6E71"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' ‘Y’ ’N’</t>
+      <t xml:space="preserve">' </t>
     </r>
     <r>
       <rPr>
@@ -514,7 +432,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -700,12 +618,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF6C6E71"/>
-      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2436,7 +2348,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="6"/>

--- a/templates/导题模板.xlsx
+++ b/templates/导题模板.xlsx
@@ -159,7 +159,7 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>、答案不要有字母外的其他字符；</t>
+      <t>、选择题答案不要有字母外的其他字符；</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +187,7 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">''A', </t>
+      <t xml:space="preserve"> 'A', </t>
     </r>
     <r>
       <rPr>
@@ -615,12 +615,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF6C6E71"/>
@@ -666,6 +660,12 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2348,7 +2348,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="6"/>
